--- a/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="283">
   <si>
     <t>PERIOD</t>
   </si>
@@ -894,6 +894,15 @@
   </si>
   <si>
     <t>12/16,28/2022</t>
+  </si>
+  <si>
+    <t>8/2-4/2023</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-42)</t>
   </si>
 </sst>
 </file>
@@ -1594,8 +1603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K536" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K536"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K537" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K537"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1924,12 +1933,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K536"/>
+  <dimension ref="A2:K537"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3525" topLeftCell="A481" activePane="bottomLeft"/>
+      <pane ySplit="3525" topLeftCell="A478" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="E491" sqref="E491"/>
+      <selection pane="bottomLeft" activeCell="F487" sqref="F487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2101,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>233.99400000000006</v>
+        <v>233.65700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2102,7 +2111,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>263.625</v>
+        <v>260.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12850,7 +12859,9 @@
       <c r="A486" s="40">
         <v>44652</v>
       </c>
-      <c r="B486" s="20"/>
+      <c r="B486" s="20" t="s">
+        <v>281</v>
+      </c>
       <c r="C486" s="13">
         <v>1.25</v>
       </c>
@@ -12864,86 +12875,86 @@
       <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="49"/>
+      <c r="K486" s="49">
+        <v>44657</v>
+      </c>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A487" s="40">
-        <v>44682</v>
-      </c>
+      <c r="A487" s="40"/>
       <c r="B487" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C487" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D487" s="39"/>
+        <v>282</v>
+      </c>
+      <c r="C487" s="13"/>
+      <c r="D487" s="39">
+        <v>0.33700000000000002</v>
+      </c>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H487" s="39">
-        <v>1</v>
-      </c>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="39"/>
       <c r="I487" s="9"/>
       <c r="J487" s="11"/>
-      <c r="K487" s="49">
-        <v>44900</v>
-      </c>
+      <c r="K487" s="49"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B488" s="20" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="C488" s="13">
         <v>1.25</v>
       </c>
-      <c r="D488" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+      <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
       <c r="G488" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H488" s="39"/>
+      <c r="H488" s="39">
+        <v>1</v>
+      </c>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="20"/>
+      <c r="K488" s="49">
+        <v>44693</v>
+      </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B489" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C489" s="13"/>
-      <c r="D489" s="39"/>
+        <v>136</v>
+      </c>
+      <c r="C489" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D489" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H489" s="39">
-        <v>2</v>
-      </c>
+      <c r="G489" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H489" s="39"/>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="40"/>
+      <c r="A490" s="40">
+        <v>44743</v>
+      </c>
       <c r="B490" s="20" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39"/>
@@ -12954,12 +12965,12 @@
         <v/>
       </c>
       <c r="H490" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
-      <c r="K490" s="49">
-        <v>44757</v>
+      <c r="K490" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
@@ -12967,31 +12978,27 @@
       <c r="B491" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C491" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C491" s="13"/>
       <c r="D491" s="39"/>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H491" s="39">
         <v>1</v>
       </c>
       <c r="I491" s="9"/>
       <c r="J491" s="11"/>
-      <c r="K491" s="20" t="s">
-        <v>85</v>
+      <c r="K491" s="49">
+        <v>44757</v>
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C492" s="13">
         <v>1.25</v>
@@ -13004,114 +13011,114 @@
         <v>1.25</v>
       </c>
       <c r="H492" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="40"/>
+      <c r="A493" s="40">
+        <v>44774</v>
+      </c>
       <c r="B493" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C493" s="13"/>
-      <c r="D493" s="39">
-        <v>0.01</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C493" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D493" s="39"/>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H493" s="39"/>
+      <c r="G493" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H493" s="39">
+        <v>2</v>
+      </c>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
-      <c r="K493" s="20"/>
+      <c r="K493" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B494" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C494" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D494" s="39"/>
+      <c r="A494" s="40"/>
+      <c r="B494" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C494" s="13"/>
+      <c r="D494" s="39">
+        <v>0.01</v>
+      </c>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H494" s="39">
-        <v>2</v>
-      </c>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="39"/>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
-      <c r="K494" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="K494" s="20"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="40"/>
-      <c r="B495" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C495" s="13"/>
-      <c r="D495" s="39">
-        <v>3</v>
-      </c>
+      <c r="A495" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B495" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C495" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D495" s="39"/>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H495" s="39"/>
+      <c r="G495" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H495" s="39">
+        <v>2</v>
+      </c>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
       <c r="K495" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C496" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D496" s="39"/>
+        <v>127</v>
+      </c>
+      <c r="C496" s="13"/>
+      <c r="D496" s="39">
+        <v>3</v>
+      </c>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H496" s="39">
-        <v>3</v>
-      </c>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H496" s="39"/>
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
       <c r="K496" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B497" s="20" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="C497" s="13">
         <v>1.25</v>
@@ -13124,67 +13131,75 @@
         <v>1.25</v>
       </c>
       <c r="H497" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="49">
-        <v>44890</v>
+      <c r="K497" s="20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B498" s="20" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C498" s="13">
         <v>1.25</v>
       </c>
-      <c r="D498" s="39">
-        <v>2</v>
-      </c>
+      <c r="D498" s="39"/>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
       <c r="G498" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H498" s="39"/>
+      <c r="H498" s="39">
+        <v>1</v>
+      </c>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20" t="s">
-        <v>279</v>
+      <c r="K498" s="49">
+        <v>44890</v>
       </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="40"/>
+      <c r="A499" s="40">
+        <v>44896</v>
+      </c>
       <c r="B499" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C499" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D499" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>2</v>
       </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="20"/>
+      <c r="K499" s="20" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B500" s="20"/>
+      <c r="A500" s="40"/>
+      <c r="B500" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="C500" s="13"/>
-      <c r="D500" s="39"/>
+      <c r="D500" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
       <c r="G500" s="13" t="str">
@@ -13197,19 +13212,17 @@
       <c r="K500" s="20"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="40">
-        <v>44927</v>
+      <c r="A501" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="B501" s="20"/>
-      <c r="C501" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C501" s="13"/>
       <c r="D501" s="39"/>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H501" s="39"/>
       <c r="I501" s="9"/>
@@ -13218,11 +13231,9 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B502" s="20" t="s">
-        <v>48</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B502" s="20"/>
       <c r="C502" s="13">
         <v>1.25</v>
       </c>
@@ -13236,15 +13247,15 @@
       <c r="H502" s="39"/>
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
-      <c r="K502" s="49">
-        <v>44974</v>
-      </c>
+      <c r="K502" s="20"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B503" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B503" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C503" s="13">
         <v>1.25</v>
       </c>
@@ -13258,11 +13269,13 @@
       <c r="H503" s="39"/>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
+      <c r="K503" s="49">
+        <v>44974</v>
+      </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -13282,11 +13295,9 @@
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B505" s="20" t="s">
-        <v>149</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B505" s="20"/>
       <c r="C505" s="13">
         <v>1.25</v>
       </c>
@@ -13300,16 +13311,14 @@
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="49">
-        <v>45061</v>
-      </c>
+      <c r="K505" s="20"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B506" s="20" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C506" s="13">
         <v>1.25</v>
@@ -13321,20 +13330,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H506" s="39">
-        <v>1</v>
-      </c>
+      <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
       <c r="K506" s="49">
-        <v>45106</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B507" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B507" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C507" s="13">
         <v>1.25</v>
       </c>
@@ -13345,23 +13354,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H507" s="39"/>
+      <c r="H507" s="39">
+        <v>1</v>
+      </c>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20"/>
+      <c r="K507" s="49">
+        <v>45106</v>
+      </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
@@ -13370,9 +13385,11 @@
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B509" s="20"/>
+        <v>45139</v>
+      </c>
+      <c r="B509" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
@@ -13381,14 +13398,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H509" s="39"/>
+      <c r="H509" s="39">
+        <v>3</v>
+      </c>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
+      <c r="K509" s="20" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -13406,7 +13427,7 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -13424,7 +13445,7 @@
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -13442,7 +13463,7 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13460,7 +13481,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13478,7 +13499,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13496,7 +13517,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13514,7 +13535,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13532,7 +13553,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13550,7 +13571,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13568,7 +13589,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13586,7 +13607,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13604,7 +13625,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13622,7 +13643,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13640,7 +13661,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13658,7 +13679,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13676,7 +13697,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13694,7 +13715,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13712,7 +13733,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13730,7 +13751,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13748,7 +13769,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13766,7 +13787,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13784,7 +13805,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13802,7 +13823,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13820,7 +13841,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13838,7 +13859,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13856,21 +13877,39 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B536" s="20"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="39"/>
+      <c r="E536" s="9"/>
+      <c r="F536" s="20"/>
+      <c r="G536" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H536" s="39"/>
+      <c r="I536" s="9"/>
+      <c r="J536" s="11"/>
+      <c r="K536" s="20"/>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537" s="40">
         <v>45992</v>
       </c>
-      <c r="B536" s="15"/>
-      <c r="C536" s="42"/>
-      <c r="D536" s="43"/>
-      <c r="E536" s="9"/>
-      <c r="F536" s="15"/>
-      <c r="G536" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H536" s="43"/>
-      <c r="I536" s="9"/>
-      <c r="J536" s="12"/>
-      <c r="K536" s="15"/>
+      <c r="B537" s="15"/>
+      <c r="C537" s="42"/>
+      <c r="D537" s="43"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="15"/>
+      <c r="G537" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H537" s="43"/>
+      <c r="I537" s="9"/>
+      <c r="J537" s="12"/>
+      <c r="K537" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13982,13 +14021,15 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
       <c r="F3" s="11">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>

--- a/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="283">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1603,8 +1603,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K537" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K537"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K539" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K539"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1933,12 +1933,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K537"/>
+  <dimension ref="A2:K539"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3525" topLeftCell="A478" activePane="bottomLeft"/>
+      <pane ySplit="3525" topLeftCell="A499" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="F487" sqref="F487"/>
+      <selection pane="bottomLeft" activeCell="B512" sqref="B512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,7 +2101,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>233.65700000000007</v>
+        <v>234.90700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2111,7 +2111,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>260.625</v>
+        <v>259.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13390,13 +13390,15 @@
       <c r="B509" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C509" s="13"/>
+      <c r="C509" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G509" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H509" s="39">
         <v>3</v>
@@ -13408,10 +13410,10 @@
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B510" s="20"/>
+      <c r="A510" s="40"/>
+      <c r="B510" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C510" s="13"/>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
@@ -13420,16 +13422,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H510" s="39"/>
+      <c r="H510" s="39">
+        <v>1</v>
+      </c>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20"/>
+      <c r="K510" s="49">
+        <v>45149</v>
+      </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B511" s="20"/>
+      <c r="A511" s="40"/>
+      <c r="B511" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="C511" s="13"/>
       <c r="D511" s="39"/>
       <c r="E511" s="9"/>
@@ -13438,16 +13444,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H511" s="39"/>
+      <c r="H511" s="39">
+        <v>1</v>
+      </c>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="49">
+        <v>45169</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B512" s="20"/>
+        <v>45170</v>
+      </c>
+      <c r="B512" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
@@ -13459,11 +13471,13 @@
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
+      <c r="K512" s="49">
+        <v>45197</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -13481,7 +13495,7 @@
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13499,7 +13513,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13517,7 +13531,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13535,7 +13549,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13553,7 +13567,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13571,7 +13585,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13589,7 +13603,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13607,7 +13621,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13625,7 +13639,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13643,7 +13657,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13661,7 +13675,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13679,7 +13693,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13697,7 +13711,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13715,7 +13729,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13733,7 +13747,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13751,7 +13765,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13769,7 +13783,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13787,7 +13801,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13805,7 +13819,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13823,7 +13837,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13841,7 +13855,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13859,7 +13873,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13877,7 +13891,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13895,21 +13909,57 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B537" s="20"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="39"/>
+      <c r="E537" s="9"/>
+      <c r="F537" s="20"/>
+      <c r="G537" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H537" s="39"/>
+      <c r="I537" s="9"/>
+      <c r="J537" s="11"/>
+      <c r="K537" s="20"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B538" s="20"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39"/>
+      <c r="E538" s="9"/>
+      <c r="F538" s="20"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
+      <c r="I538" s="9"/>
+      <c r="J538" s="11"/>
+      <c r="K538" s="20"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="40">
         <v>45992</v>
       </c>
-      <c r="B537" s="15"/>
-      <c r="C537" s="42"/>
-      <c r="D537" s="43"/>
-      <c r="E537" s="9"/>
-      <c r="F537" s="15"/>
-      <c r="G537" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H537" s="43"/>
-      <c r="I537" s="9"/>
-      <c r="J537" s="12"/>
-      <c r="K537" s="15"/>
+      <c r="B539" s="15"/>
+      <c r="C539" s="42"/>
+      <c r="D539" s="43"/>
+      <c r="E539" s="9"/>
+      <c r="F539" s="15"/>
+      <c r="G539" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H539" s="43"/>
+      <c r="I539" s="9"/>
+      <c r="J539" s="12"/>
+      <c r="K539" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="288">
   <si>
     <t>PERIOD</t>
   </si>
@@ -909,6 +909,15 @@
   </si>
   <si>
     <t>12/5,13,19,22/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-1-57)</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1618,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K540"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K544"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1939,12 +1948,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K540"/>
+  <dimension ref="A2:K544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3525" topLeftCell="A496" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="K516" sqref="K516"/>
+      <selection pane="bottomLeft" activeCell="F518" sqref="F518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,7 +2116,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>232.40700000000007</v>
+        <v>233.15700000000007</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2117,7 +2126,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>260.375</v>
+        <v>262.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13460,35 +13469,31 @@
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C512" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D512" s="39"/>
+        <v>287</v>
+      </c>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="49">
-        <v>45197</v>
-      </c>
+      <c r="K512" s="49"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B513" s="20" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C513" s="13">
         <v>1.25</v>
@@ -13500,23 +13505,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H513" s="39">
-        <v>2</v>
-      </c>
+      <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="20" t="s">
-        <v>283</v>
+      <c r="K513" s="49">
+        <v>45197</v>
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="C514" s="13"/>
       <c r="D514" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
@@ -13527,41 +13530,43 @@
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="49">
-        <v>45259</v>
-      </c>
+      <c r="K514" s="49"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B515" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C515" s="13"/>
-      <c r="D515" s="39">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H515" s="39"/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H515" s="39">
+        <v>2</v>
+      </c>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B516" s="20"/>
+      <c r="A516" s="40"/>
+      <c r="B516" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="C516" s="13"/>
-      <c r="D516" s="39"/>
+      <c r="D516" s="39">
+        <v>1</v>
+      </c>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
       <c r="G516" s="13" t="str">
@@ -13571,33 +13576,45 @@
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="20"/>
+      <c r="K516" s="49">
+        <v>45259</v>
+      </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
-      <c r="D517" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B517" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D517" s="39">
+        <v>4</v>
+      </c>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20"/>
+      <c r="K517" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B518" s="20"/>
+      <c r="A518" s="40"/>
+      <c r="B518" s="20" t="s">
+        <v>286</v>
+      </c>
       <c r="C518" s="13"/>
-      <c r="D518" s="39"/>
+      <c r="D518" s="39">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
       <c r="G518" s="13" t="str">
@@ -13611,25 +13628,33 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B519" s="20"/>
-      <c r="C519" s="13"/>
-      <c r="D519" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B519" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D519" s="39">
+        <v>1</v>
+      </c>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="20"/>
+      <c r="K519" s="49">
+        <v>45288</v>
+      </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A520" s="40">
-        <v>45383</v>
+      <c r="A520" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13647,7 +13672,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13665,7 +13690,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13683,7 +13708,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13701,7 +13726,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13719,7 +13744,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13737,7 +13762,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13755,7 +13780,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13773,7 +13798,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13791,7 +13816,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13809,7 +13834,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13827,7 +13852,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13845,7 +13870,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13863,7 +13888,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13881,7 +13906,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13899,7 +13924,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13917,7 +13942,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13935,7 +13960,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13953,7 +13978,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13971,7 +13996,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13989,21 +14014,93 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
+        <v>45870</v>
+      </c>
+      <c r="B540" s="20"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="39"/>
+      <c r="E540" s="9"/>
+      <c r="F540" s="20"/>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="39"/>
+      <c r="I540" s="9"/>
+      <c r="J540" s="11"/>
+      <c r="K540" s="20"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" s="40">
+        <v>45901</v>
+      </c>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H541" s="39"/>
+      <c r="I541" s="9"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="20"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="40">
+        <v>45931</v>
+      </c>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
+      <c r="I542" s="9"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="40">
         <v>45992</v>
       </c>
-      <c r="B540" s="15"/>
-      <c r="C540" s="42"/>
-      <c r="D540" s="43"/>
-      <c r="E540" s="9"/>
-      <c r="F540" s="15"/>
-      <c r="G540" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H540" s="43"/>
-      <c r="I540" s="9"/>
-      <c r="J540" s="12"/>
-      <c r="K540" s="15"/>
+      <c r="B544" s="15"/>
+      <c r="C544" s="42"/>
+      <c r="D544" s="43"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="15"/>
+      <c r="G544" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="43"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="12"/>
+      <c r="K544" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14116,14 +14213,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.33700000000000002</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>

--- a/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
+++ b/REGULAR/CTO/DIMAPILIS ANTHONY A..xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="289">
   <si>
     <t>PERIOD</t>
   </si>
@@ -918,6 +918,9 @@
   </si>
   <si>
     <t>UT(0-1-57)</t>
+  </si>
+  <si>
+    <t>UT(0-0-39)</t>
   </si>
 </sst>
 </file>
@@ -1618,8 +1621,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K544"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K545" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K545"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -1948,12 +1951,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K544"/>
+  <dimension ref="A2:K545"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="3525" topLeftCell="A496" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="F518" sqref="F518"/>
+      <selection pane="bottomLeft" activeCell="K504" sqref="K504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2119,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>233.15700000000007</v>
+        <v>232.07600000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13292,11 +13295,15 @@
       <c r="A504" s="40">
         <v>44986</v>
       </c>
-      <c r="B504" s="20"/>
+      <c r="B504" s="20" t="s">
+        <v>281</v>
+      </c>
       <c r="C504" s="13">
         <v>1.25</v>
       </c>
-      <c r="D504" s="39"/>
+      <c r="D504" s="39">
+        <v>1</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
       <c r="G504" s="13">
@@ -13306,7 +13313,9 @@
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="49">
+        <v>45007</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
@@ -13379,32 +13388,30 @@
       </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B508" s="20"/>
-      <c r="C508" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D508" s="39"/>
+      <c r="A508" s="40"/>
+      <c r="B508" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C508" s="13"/>
+      <c r="D508" s="39">
+        <v>8.1000000000000016E-2</v>
+      </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20"/>
+      <c r="K508" s="49"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B509" s="20" t="s">
-        <v>93</v>
-      </c>
+        <v>45108</v>
+      </c>
+      <c r="B509" s="20"/>
       <c r="C509" s="13">
         <v>1.25</v>
       </c>
@@ -13415,35 +13422,35 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H509" s="39">
-        <v>3</v>
-      </c>
+      <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20" t="s">
-        <v>280</v>
-      </c>
+      <c r="K509" s="20"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="40"/>
+      <c r="A510" s="40">
+        <v>45139</v>
+      </c>
       <c r="B510" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C510" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="49">
-        <v>45149</v>
+      <c r="K510" s="20" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
@@ -13465,214 +13472,218 @@
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
       <c r="K511" s="49">
-        <v>45169</v>
+        <v>45149</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
-        <v>287</v>
+        <v>124</v>
       </c>
       <c r="C512" s="13"/>
-      <c r="D512" s="39">
-        <v>0.24399999999999999</v>
-      </c>
+      <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
       <c r="G512" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H512" s="39"/>
+      <c r="H512" s="39">
+        <v>1</v>
+      </c>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="49"/>
+      <c r="K512" s="49">
+        <v>45169</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A513" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C513" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D513" s="39"/>
+        <v>287</v>
+      </c>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="49">
-        <v>45197</v>
-      </c>
+      <c r="K513" s="49"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="40"/>
+      <c r="A514" s="40">
+        <v>45170</v>
+      </c>
       <c r="B514" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C514" s="13"/>
-      <c r="D514" s="39">
-        <v>0.5</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="49"/>
+      <c r="K514" s="49">
+        <v>45197</v>
+      </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A515" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C515" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D515" s="39"/>
+        <v>234</v>
+      </c>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H515" s="39">
-        <v>2</v>
-      </c>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20" t="s">
-        <v>283</v>
-      </c>
+      <c r="K515" s="49"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="40"/>
+      <c r="A516" s="40">
+        <v>45200</v>
+      </c>
       <c r="B516" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C516" s="13"/>
-      <c r="D516" s="39">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H516" s="39"/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H516" s="39">
+        <v>2</v>
+      </c>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="49">
-        <v>45259</v>
+      <c r="K516" s="20" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A517" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C517" s="13">
-        <v>1.25</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C517" s="13"/>
       <c r="D517" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G517" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20" t="s">
-        <v>284</v>
+      <c r="K517" s="49">
+        <v>45259</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="40"/>
+      <c r="A518" s="40">
+        <v>45231</v>
+      </c>
       <c r="B518" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="C518" s="13"/>
+        <v>226</v>
+      </c>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39">
-        <v>6.0000000000000001E-3</v>
+        <v>4</v>
       </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="20"/>
+      <c r="K518" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A519" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="C519" s="13">
-        <v>1.25</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="C519" s="13"/>
       <c r="D519" s="39">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
-      <c r="K519" s="49">
-        <v>45288</v>
-      </c>
+      <c r="K519" s="20"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A520" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="B520" s="20"/>
-      <c r="C520" s="13"/>
-      <c r="D520" s="39"/>
+      <c r="A520" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B520" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C520" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D520" s="39">
+        <v>1</v>
+      </c>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G520" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20"/>
+      <c r="K520" s="49">
+        <v>45288</v>
+      </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40">
-        <v>45292</v>
+      <c r="A521" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13690,7 +13701,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13708,7 +13719,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13726,7 +13737,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13744,7 +13755,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13762,7 +13773,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13780,7 +13791,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13798,7 +13809,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13816,7 +13827,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13834,7 +13845,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13852,7 +13863,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13870,7 +13881,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13888,7 +13899,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13906,7 +13917,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13924,7 +13935,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13942,7 +13953,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13960,7 +13971,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13978,7 +13989,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13996,7 +14007,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14014,7 +14025,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14032,7 +14043,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14050,7 +14061,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14068,7 +14079,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14086,21 +14097,39 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B544" s="20"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="39"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="20"/>
+      <c r="G544" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="39"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="11"/>
+      <c r="K544" s="20"/>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="40">
         <v>45992</v>
       </c>
-      <c r="B544" s="15"/>
-      <c r="C544" s="42"/>
-      <c r="D544" s="43"/>
-      <c r="E544" s="9"/>
-      <c r="F544" s="15"/>
-      <c r="G544" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H544" s="43"/>
-      <c r="I544" s="9"/>
-      <c r="J544" s="12"/>
-      <c r="K544" s="15"/>
+      <c r="B545" s="15"/>
+      <c r="C545" s="42"/>
+      <c r="D545" s="43"/>
+      <c r="E545" s="9"/>
+      <c r="F545" s="15"/>
+      <c r="G545" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H545" s="43"/>
+      <c r="I545" s="9"/>
+      <c r="J545" s="12"/>
+      <c r="K545" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14212,15 +14241,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.24399999999999999</v>
+        <v>8.1000000000000016E-2</v>
       </c>
       <c r="J3" s="47">
         <v>16</v>
